--- a/schema university/university table.xlsx
+++ b/schema university/university table.xlsx
@@ -15,531 +15,665 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>green</author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>green:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몇시간짜리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강의인가</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>green:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전필</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전선
+교필</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교선
+일반</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>과목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교수번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전공</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학번</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>년도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수강</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과목명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수강번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학생</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과목코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교수번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인연락처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>교수실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과목코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의실</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학년</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중간성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기말성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출석점수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등급</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지도번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업요건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>입학년도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>총학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전공이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일반이수학점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업시험</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자격증</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학위</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업요건번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업작품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업가능여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영어성적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업논문</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업시험</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subject_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_room</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>professor_age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_schedule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_age</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_grade</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_semester</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_address</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_resident_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>student_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_class_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_mid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_report</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>advice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>advice_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>advice_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>advice_student_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_major</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_degree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_major_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_general_point</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_requirement_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_ok</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_english</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>graduation_certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>course_attendance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>requirement_entrance_year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_subject_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>class_professor_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -553,15 +687,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,17 +740,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,86 +761,105 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="메모" xfId="3" builtinId="10"/>
-    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
-    <cellStyle name="출력" xfId="1" builtinId="21"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -968,489 +1154,914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="8"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+      <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1458,19 +2069,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1483,7 +2086,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>